--- a/SPPSApi/Doc/Template/FS1207_SSP_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_SSP_Export.xlsx
@@ -33,7 +33,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>货</t>
@@ -52,7 +51,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单</t>
@@ -156,7 +154,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>货</t>
@@ -175,7 +172,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>明</t>
@@ -194,7 +190,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>细</t>
@@ -213,7 +208,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>栏：</t>
@@ -296,7 +290,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>件</t>
@@ -345,7 +338,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -356,7 +348,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -367,7 +358,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -379,7 +369,6 @@
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -405,7 +394,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -418,7 +406,6 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
